--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
   <si>
     <t>TC</t>
   </si>
@@ -191,12 +196,15 @@
   </si>
   <si>
     <t>TwoWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,13 +290,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -337,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,9 +381,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +433,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,22 +625,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -623,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -637,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -651,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -665,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -679,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -700,24 +745,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.77734375" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="82.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -740,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -757,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -774,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -792,7 +837,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -810,7 +855,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -828,7 +873,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -846,7 +891,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -864,7 +909,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -882,7 +927,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -900,7 +945,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -917,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -934,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -951,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -975,29 +1020,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="46" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
@@ -1073,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
@@ -1108,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
@@ -1143,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
@@ -1178,7 +1223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
@@ -1213,7 +1258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
@@ -1248,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
@@ -1283,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
@@ -1318,7 +1363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
@@ -1353,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
@@ -1388,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
@@ -1423,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -1458,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
@@ -1495,39 +1540,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3:E12" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E14" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3:E12" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E13" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E14" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="44.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="44.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -1571,7 +1616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
@@ -1594,7 +1639,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>54</v>
@@ -1611,7 +1656,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="58">
   <si>
     <t>TC</t>
   </si>
@@ -174,9 +174,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -198,13 +195,13 @@
     <t>TwoWeekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +287,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -625,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1020,11 +1017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
@@ -1100,19 +1097,19 @@
         <v>48</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>6</v>
@@ -1126,7 +1123,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>20</v>
@@ -1135,19 +1132,19 @@
         <v>48</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>6</v>
@@ -1161,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
@@ -1170,19 +1167,19 @@
         <v>48</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>6</v>
@@ -1196,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>20</v>
@@ -1205,19 +1202,19 @@
         <v>48</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>6</v>
@@ -1231,7 +1228,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>20</v>
@@ -1240,19 +1237,19 @@
         <v>48</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>6</v>
@@ -1266,7 +1263,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
@@ -1275,19 +1272,19 @@
         <v>48</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>6</v>
@@ -1301,7 +1298,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
@@ -1310,19 +1307,19 @@
         <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -1336,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
@@ -1345,19 +1342,19 @@
         <v>48</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>6</v>
@@ -1371,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
@@ -1380,19 +1377,19 @@
         <v>48</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>6</v>
@@ -1406,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
@@ -1415,19 +1412,19 @@
         <v>48</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>6</v>
@@ -1441,7 +1438,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>20</v>
@@ -1450,19 +1447,19 @@
         <v>48</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>6</v>
@@ -1476,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>20</v>
@@ -1485,19 +1482,19 @@
         <v>48</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>6</v>
@@ -1511,7 +1508,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
@@ -1520,19 +1517,19 @@
         <v>48</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>6</v>
@@ -1540,20 +1537,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3:E12" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E14" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3:E12" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E13" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E14" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1604,7 +1601,7 @@
         <v>46</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -1624,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
@@ -1633,22 +1630,22 @@
         <v>48</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>6</v>
@@ -1656,7 +1653,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
